--- a/files/Project Data.xlsx
+++ b/files/Project Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="project_data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="info" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="capacity" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="demand" sheetId="4" state="visible" r:id="rId5"/>
@@ -486,7 +486,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,10 +535,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -592,10 +588,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,20 +690,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J65"/>
+  <dimension ref="B1:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="0.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="57.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="0.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="57.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,8 +754,6 @@
         <f aca="false">(G3*100)/5.2</f>
         <v>4843.5</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
@@ -789,8 +779,6 @@
         <f aca="false">(G4*100)/5.2</f>
         <v>2179.01923076923</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
@@ -802,10 +790,10 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="13" t="n">
         <v>5946</v>
       </c>
       <c r="G5" s="10" t="n">
@@ -816,8 +804,6 @@
         <f aca="false">(G5*100)/5.2</f>
         <v>114.346153846154</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
@@ -832,7 +818,7 @@
       <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="14" t="n">
         <v>5563</v>
       </c>
       <c r="G6" s="10" t="n">
@@ -843,8 +829,6 @@
         <f aca="false">(G6*100)/5.2</f>
         <v>106.980769230769</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
@@ -859,7 +843,7 @@
       <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="14" t="n">
         <v>11002</v>
       </c>
       <c r="G7" s="10" t="n">
@@ -870,8 +854,6 @@
         <f aca="false">(G7*100)/5.2</f>
         <v>211.576923076923</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
@@ -883,10 +865,10 @@
       <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="16" t="n">
         <v>394861</v>
       </c>
       <c r="G8" s="10" t="n">
@@ -897,8 +879,6 @@
         <f aca="false">(G8*100)/5.2</f>
         <v>7593.48076923077</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
@@ -924,8 +904,6 @@
         <f aca="false">(G9*100)/5.2</f>
         <v>14438.1538461538</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
@@ -940,7 +918,7 @@
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="14" t="n">
         <v>337250</v>
       </c>
       <c r="G10" s="10" t="n">
@@ -951,8 +929,6 @@
         <f aca="false">(G10*100)/5.2</f>
         <v>6485.57692307692</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
@@ -964,10 +940,10 @@
       <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="16" t="n">
         <v>16723</v>
       </c>
       <c r="G11" s="10" t="n">
@@ -978,8 +954,6 @@
         <f aca="false">(G11*100)/5.2</f>
         <v>321.596153846154</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
@@ -994,7 +968,7 @@
       <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="14" t="n">
         <v>5248</v>
       </c>
       <c r="G12" s="10" t="n">
@@ -1004,8 +978,6 @@
       <c r="H12" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
@@ -1020,7 +992,7 @@
       <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="14" t="n">
         <v>15814</v>
       </c>
       <c r="G13" s="10" t="n">
@@ -1031,8 +1003,6 @@
         <f aca="false">(G13*100)/5.2</f>
         <v>304.115384615385</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
@@ -1047,7 +1017,7 @@
       <c r="E14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="14" t="n">
         <v>247308</v>
       </c>
       <c r="G14" s="10" t="n">
@@ -1058,8 +1028,6 @@
         <f aca="false">(G14*100)/5.2</f>
         <v>4755.92307692308</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -1071,10 +1039,10 @@
       <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="16" t="n">
         <v>74552</v>
       </c>
       <c r="G15" s="10" t="n">
@@ -1085,8 +1053,6 @@
         <f aca="false">(G15*100)/5.2</f>
         <v>1433.69230769231</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
@@ -1101,7 +1067,7 @@
       <c r="E16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="14" t="n">
         <v>24184</v>
       </c>
       <c r="G16" s="10" t="n">
@@ -1112,8 +1078,6 @@
         <f aca="false">(G16*100)/5.2</f>
         <v>465.076923076923</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
@@ -1125,10 +1089,10 @@
       <c r="D17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="14" t="n">
         <v>6241</v>
       </c>
       <c r="G17" s="10" t="n">
@@ -1139,8 +1103,6 @@
         <f aca="false">(G17*100)/5.2</f>
         <v>120.019230769231</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
@@ -1152,10 +1114,10 @@
       <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="16" t="n">
         <v>696371</v>
       </c>
       <c r="G18" s="10" t="n">
@@ -1166,8 +1128,6 @@
         <f aca="false">(G18*100)/5.2</f>
         <v>13391.75</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
@@ -1182,7 +1142,7 @@
       <c r="E19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="15" t="n">
+      <c r="F19" s="14" t="n">
         <v>76178</v>
       </c>
       <c r="G19" s="10" t="n">
@@ -1193,8 +1153,6 @@
         <f aca="false">(G19*100)/5.2</f>
         <v>1464.96153846154</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
@@ -1209,7 +1167,7 @@
       <c r="E20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="16" t="n">
         <v>34286</v>
       </c>
       <c r="G20" s="10" t="n">
@@ -1220,8 +1178,6 @@
         <f aca="false">(G20*100)/5.2</f>
         <v>659.346153846154</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
@@ -1236,7 +1192,7 @@
       <c r="E21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="14" t="n">
         <v>83383</v>
       </c>
       <c r="G21" s="10" t="n">
@@ -1247,8 +1203,6 @@
         <f aca="false">(G21*100)/5.2</f>
         <v>1603.51923076923</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
@@ -1263,7 +1217,7 @@
       <c r="E22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="14" t="n">
         <v>17333</v>
       </c>
       <c r="G22" s="10" t="n">
@@ -1274,8 +1228,6 @@
         <f aca="false">(G22*100)/5.2</f>
         <v>333.326923076923</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
@@ -1290,7 +1242,7 @@
       <c r="E23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="14" t="n">
         <v>206790</v>
       </c>
       <c r="G23" s="10" t="n">
@@ -1301,8 +1253,6 @@
         <f aca="false">(G23*100)/5.2</f>
         <v>3976.73076923077</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
@@ -1317,7 +1267,7 @@
       <c r="E24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="14" t="n">
         <v>610930</v>
       </c>
       <c r="G24" s="10" t="n">
@@ -1328,8 +1278,6 @@
         <f aca="false">(G24*100)/5.2</f>
         <v>11748.6538461538</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
@@ -1344,7 +1292,7 @@
       <c r="E25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="17" t="n">
+      <c r="F25" s="16" t="n">
         <v>293388</v>
       </c>
       <c r="G25" s="10" t="n">
@@ -1355,8 +1303,6 @@
         <f aca="false">(G25*100)/5.2</f>
         <v>5642.07692307692</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
@@ -1371,7 +1317,7 @@
       <c r="E26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="17" t="n">
+      <c r="F26" s="16" t="n">
         <v>20265</v>
       </c>
       <c r="G26" s="10" t="n">
@@ -1382,8 +1328,6 @@
         <f aca="false">(G26*100)/5.2</f>
         <v>389.711538461538</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
@@ -1398,7 +1342,7 @@
       <c r="E27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="15" t="n">
+      <c r="F27" s="14" t="n">
         <v>316718</v>
       </c>
       <c r="G27" s="10" t="n">
@@ -1409,8 +1353,6 @@
         <f aca="false">(G27*100)/5.2</f>
         <v>6090.73076923077</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
@@ -1425,7 +1367,7 @@
       <c r="E28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="F28" s="14" t="n">
         <v>287837</v>
       </c>
       <c r="G28" s="10" t="n">
@@ -1436,8 +1378,6 @@
         <f aca="false">(G28*100)/5.2</f>
         <v>5535.32692307692</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
@@ -1449,10 +1389,10 @@
       <c r="D29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="14" t="n">
         <v>86055</v>
       </c>
       <c r="G29" s="10" t="n">
@@ -1463,8 +1403,6 @@
         <f aca="false">(G29*100)/5.2</f>
         <v>1654.90384615385</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
@@ -1476,10 +1414,10 @@
       <c r="D30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="17" t="n">
+      <c r="F30" s="16" t="n">
         <v>152164</v>
       </c>
       <c r="G30" s="10" t="n">
@@ -1490,162 +1428,152 @@
         <f aca="false">(G30*100)/5.2</f>
         <v>2926.23076923077</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="20"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="20"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="26"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="20"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="20"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="20"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="20"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="27"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="20"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="20"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="27"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="20"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="20"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="27"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="20"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="27"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="20"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="20"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="20"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="20"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="28"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="20"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="27"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="20"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="20"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="20"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="28"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="20"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="20"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="27"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="20"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="20"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="20"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="27"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="20"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="20"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="27"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="20"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="28"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="20"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="20"/>
+      <c r="H65" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1669,148 +1597,148 @@
       <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="131.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1836,7 +1764,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1996,11 +1924,11 @@
   </sheetPr>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
